--- a/observations.xlsx
+++ b/observations.xlsx
@@ -1371,26 +1371,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1409,6 +1394,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1733,67 +1733,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT255"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="2"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="38" width="9.109375" style="3" customWidth="1"/>
+    <col min="10" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="38" width="6" style="3" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="14.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="23"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="18"/>
       <c r="AM1" s="4" t="s">
         <v>241</v>
       </c>
@@ -2209,12 +2215,12 @@
         <f t="shared" si="1"/>
         <v>repeat</v>
       </c>
-      <c r="AP14" s="24" t="s">
+      <c r="AP14" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="AQ14" s="24"/>
-      <c r="AR14" s="24"/>
-      <c r="AS14" s="24"/>
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="19"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -2767,12 +2773,12 @@
         <f t="shared" si="1"/>
         <v>skip</v>
       </c>
-      <c r="AP30" s="24" t="s">
+      <c r="AP30" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="AQ30" s="24"/>
-      <c r="AR30" s="24"/>
-      <c r="AS30" s="24"/>
+      <c r="AQ30" s="19"/>
+      <c r="AR30" s="19"/>
+      <c r="AS30" s="19"/>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
@@ -2835,12 +2841,12 @@
         <f t="shared" si="1"/>
         <v>skip</v>
       </c>
-      <c r="AP32" s="13" t="s">
+      <c r="AP32" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="AQ32" s="13"/>
-      <c r="AR32" s="13"/>
-      <c r="AS32" s="13"/>
+      <c r="AQ32" s="12"/>
+      <c r="AR32" s="12"/>
+      <c r="AS32" s="12"/>
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
@@ -3882,16 +3888,16 @@
       </c>
     </row>
     <row r="67" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B67" s="21">
         <v>493</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C67" s="22">
         <v>5289</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I67" s="13">
         <v>34.58</v>
       </c>
       <c r="J67">
@@ -3981,30 +3987,30 @@
       <c r="AL67" s="6">
         <v>13112</v>
       </c>
-      <c r="AM67" s="14">
+      <c r="AM67" s="13">
         <v>1983.03</v>
       </c>
-      <c r="AN67" s="14">
+      <c r="AN67" s="13">
         <f t="shared" si="2"/>
         <v>57.346153846153847</v>
       </c>
-      <c r="AO67" s="19" t="str">
+      <c r="AO67" s="14" t="str">
         <f t="shared" ref="AO67:AO134" si="3">IF(AN67&lt;2,"skip", "repeat")</f>
         <v>repeat</v>
       </c>
-      <c r="AP67" s="20" t="s">
+      <c r="AP67" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="AQ67" s="20"/>
-      <c r="AR67" s="20"/>
-      <c r="AS67" s="20"/>
+      <c r="AQ67" s="15"/>
+      <c r="AR67" s="15"/>
+      <c r="AS67" s="15"/>
       <c r="AT67" s="8"/>
     </row>
     <row r="68" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A68" s="15"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="17"/>
-      <c r="I68" s="14"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="22"/>
+      <c r="I68" s="13"/>
       <c r="J68">
         <v>13113</v>
       </c>
@@ -4092,20 +4098,20 @@
       <c r="AL68" s="6">
         <v>16437</v>
       </c>
-      <c r="AM68" s="14"/>
-      <c r="AN68" s="14"/>
-      <c r="AO68" s="19"/>
-      <c r="AP68" s="20"/>
-      <c r="AQ68" s="20"/>
-      <c r="AR68" s="20"/>
-      <c r="AS68" s="20"/>
+      <c r="AM68" s="13"/>
+      <c r="AN68" s="13"/>
+      <c r="AO68" s="14"/>
+      <c r="AP68" s="15"/>
+      <c r="AQ68" s="15"/>
+      <c r="AR68" s="15"/>
+      <c r="AS68" s="15"/>
       <c r="AT68" s="8"/>
     </row>
     <row r="69" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A69" s="15"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
-      <c r="I69" s="14"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="22"/>
+      <c r="I69" s="13"/>
       <c r="J69">
         <v>16438</v>
       </c>
@@ -4193,20 +4199,20 @@
       <c r="AL69" s="6">
         <v>17686</v>
       </c>
-      <c r="AM69" s="14"/>
-      <c r="AN69" s="14"/>
-      <c r="AO69" s="19"/>
-      <c r="AP69" s="20"/>
-      <c r="AQ69" s="20"/>
-      <c r="AR69" s="20"/>
-      <c r="AS69" s="20"/>
+      <c r="AM69" s="13"/>
+      <c r="AN69" s="13"/>
+      <c r="AO69" s="14"/>
+      <c r="AP69" s="15"/>
+      <c r="AQ69" s="15"/>
+      <c r="AR69" s="15"/>
+      <c r="AS69" s="15"/>
       <c r="AT69" s="8"/>
     </row>
     <row r="70" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A70" s="15"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="17"/>
-      <c r="I70" s="14"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="22"/>
+      <c r="I70" s="13"/>
       <c r="J70">
         <v>18423</v>
       </c>
@@ -4294,20 +4300,20 @@
       <c r="AL70" s="6">
         <v>19879</v>
       </c>
-      <c r="AM70" s="14"/>
-      <c r="AN70" s="14"/>
-      <c r="AO70" s="19"/>
-      <c r="AP70" s="20"/>
-      <c r="AQ70" s="20"/>
-      <c r="AR70" s="20"/>
-      <c r="AS70" s="20"/>
+      <c r="AM70" s="13"/>
+      <c r="AN70" s="13"/>
+      <c r="AO70" s="14"/>
+      <c r="AP70" s="15"/>
+      <c r="AQ70" s="15"/>
+      <c r="AR70" s="15"/>
+      <c r="AS70" s="15"/>
       <c r="AT70" s="8"/>
     </row>
     <row r="71" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A71" s="15"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="17"/>
-      <c r="I71" s="14"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="22"/>
+      <c r="I71" s="13"/>
       <c r="J71">
         <v>19880</v>
       </c>
@@ -4365,13 +4371,13 @@
       <c r="AJ71" s="6"/>
       <c r="AK71" s="6"/>
       <c r="AL71" s="6"/>
-      <c r="AM71" s="14"/>
-      <c r="AN71" s="14"/>
-      <c r="AO71" s="19"/>
-      <c r="AP71" s="20"/>
-      <c r="AQ71" s="20"/>
-      <c r="AR71" s="20"/>
-      <c r="AS71" s="20"/>
+      <c r="AM71" s="13"/>
+      <c r="AN71" s="13"/>
+      <c r="AO71" s="14"/>
+      <c r="AP71" s="15"/>
+      <c r="AQ71" s="15"/>
+      <c r="AR71" s="15"/>
+      <c r="AS71" s="15"/>
       <c r="AT71" s="8"/>
     </row>
     <row r="72" spans="1:46" x14ac:dyDescent="0.3">
@@ -4411,12 +4417,12 @@
         <f t="shared" si="3"/>
         <v>repeat</v>
       </c>
-      <c r="AP72" s="13" t="s">
+      <c r="AP72" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="AQ72" s="13"/>
-      <c r="AR72" s="13"/>
-      <c r="AS72" s="13"/>
+      <c r="AQ72" s="12"/>
+      <c r="AR72" s="12"/>
+      <c r="AS72" s="12"/>
     </row>
     <row r="73" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
@@ -5882,12 +5888,12 @@
         <f t="shared" si="3"/>
         <v>skip</v>
       </c>
-      <c r="AP118" s="13" t="s">
+      <c r="AP118" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="AQ118" s="13"/>
-      <c r="AR118" s="13"/>
-      <c r="AS118" s="13"/>
+      <c r="AQ118" s="12"/>
+      <c r="AR118" s="12"/>
+      <c r="AS118" s="12"/>
     </row>
     <row r="119" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
@@ -6061,12 +6067,12 @@
         <f t="shared" si="3"/>
         <v>repeat</v>
       </c>
-      <c r="AP123" s="13" t="s">
+      <c r="AP123" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="AQ123" s="13"/>
-      <c r="AR123" s="13"/>
-      <c r="AS123" s="13"/>
+      <c r="AQ123" s="12"/>
+      <c r="AR123" s="12"/>
+      <c r="AS123" s="12"/>
     </row>
     <row r="124" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
@@ -6871,13 +6877,13 @@
       </c>
     </row>
     <row r="149" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A149" s="15" t="s">
+      <c r="A149" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B149" s="16">
+      <c r="B149" s="21">
         <v>360</v>
       </c>
-      <c r="I149" s="14">
+      <c r="I149" s="13">
         <v>34.72</v>
       </c>
       <c r="J149" s="6">
@@ -6967,23 +6973,23 @@
       <c r="AL149" s="6">
         <v>17510</v>
       </c>
-      <c r="AM149" s="14">
+      <c r="AM149" s="13">
         <v>2116.58</v>
       </c>
-      <c r="AN149" s="18">
+      <c r="AN149" s="24">
         <f t="shared" si="4"/>
         <v>60.961405529953915</v>
       </c>
-      <c r="AO149" s="19" t="str">
+      <c r="AO149" s="14" t="str">
         <f t="shared" si="5"/>
         <v>repeat</v>
       </c>
       <c r="AT149" s="8"/>
     </row>
     <row r="150" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A150" s="15"/>
-      <c r="B150" s="16"/>
-      <c r="I150" s="14"/>
+      <c r="A150" s="20"/>
+      <c r="B150" s="21"/>
+      <c r="I150" s="13"/>
       <c r="J150" s="6">
         <v>17511</v>
       </c>
@@ -7071,15 +7077,15 @@
       <c r="AL150" s="6">
         <v>18886</v>
       </c>
-      <c r="AM150" s="14"/>
-      <c r="AN150" s="18"/>
-      <c r="AO150" s="19"/>
+      <c r="AM150" s="13"/>
+      <c r="AN150" s="24"/>
+      <c r="AO150" s="14"/>
       <c r="AT150" s="8"/>
     </row>
     <row r="151" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A151" s="15"/>
-      <c r="B151" s="16"/>
-      <c r="I151" s="14"/>
+      <c r="A151" s="20"/>
+      <c r="B151" s="21"/>
+      <c r="I151" s="13"/>
       <c r="J151" s="6">
         <v>19888</v>
       </c>
@@ -7131,9 +7137,9 @@
       <c r="AJ151" s="6"/>
       <c r="AK151" s="6"/>
       <c r="AL151" s="6"/>
-      <c r="AM151" s="14"/>
-      <c r="AN151" s="18"/>
-      <c r="AO151" s="19"/>
+      <c r="AM151" s="13"/>
+      <c r="AN151" s="24"/>
+      <c r="AO151" s="14"/>
       <c r="AT151" s="8"/>
     </row>
     <row r="152" spans="1:46" x14ac:dyDescent="0.3">
@@ -7350,12 +7356,12 @@
         <f t="shared" si="5"/>
         <v>repeat</v>
       </c>
-      <c r="AP158" s="13" t="s">
+      <c r="AP158" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="AQ158" s="13"/>
-      <c r="AR158" s="13"/>
-      <c r="AS158" s="13"/>
+      <c r="AQ158" s="12"/>
+      <c r="AR158" s="12"/>
+      <c r="AS158" s="12"/>
     </row>
     <row r="159" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
@@ -7395,16 +7401,16 @@
       </c>
     </row>
     <row r="160" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A160" s="15" t="s">
+      <c r="A160" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="B160" s="16">
+      <c r="B160" s="21">
         <v>5826</v>
       </c>
-      <c r="C160" s="17">
+      <c r="C160" s="22">
         <v>5827</v>
       </c>
-      <c r="I160" s="14">
+      <c r="I160" s="13">
         <v>282.95999999999998</v>
       </c>
       <c r="J160">
@@ -7494,30 +7500,30 @@
       <c r="AL160" s="6">
         <v>5740</v>
       </c>
-      <c r="AM160" s="14">
+      <c r="AM160" s="13">
         <v>1438.31</v>
       </c>
-      <c r="AN160" s="14">
+      <c r="AN160" s="13">
         <f t="shared" si="4"/>
         <v>5.0830859485439639</v>
       </c>
-      <c r="AO160" s="19" t="str">
+      <c r="AO160" s="14" t="str">
         <f t="shared" si="5"/>
         <v>repeat</v>
       </c>
-      <c r="AP160" s="20" t="s">
+      <c r="AP160" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="AQ160" s="20"/>
-      <c r="AR160" s="20"/>
-      <c r="AS160" s="20"/>
+      <c r="AQ160" s="15"/>
+      <c r="AR160" s="15"/>
+      <c r="AS160" s="15"/>
       <c r="AT160" s="8"/>
     </row>
     <row r="161" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A161" s="15"/>
-      <c r="B161" s="16"/>
-      <c r="C161" s="17"/>
-      <c r="I161" s="14"/>
+      <c r="A161" s="20"/>
+      <c r="B161" s="21"/>
+      <c r="C161" s="22"/>
+      <c r="I161" s="13"/>
       <c r="J161">
         <v>5741</v>
       </c>
@@ -7605,20 +7611,20 @@
       <c r="AL161" s="5">
         <v>7351</v>
       </c>
-      <c r="AM161" s="14"/>
-      <c r="AN161" s="14"/>
-      <c r="AO161" s="19"/>
-      <c r="AP161" s="20"/>
-      <c r="AQ161" s="20"/>
-      <c r="AR161" s="20"/>
-      <c r="AS161" s="20"/>
+      <c r="AM161" s="13"/>
+      <c r="AN161" s="13"/>
+      <c r="AO161" s="14"/>
+      <c r="AP161" s="15"/>
+      <c r="AQ161" s="15"/>
+      <c r="AR161" s="15"/>
+      <c r="AS161" s="15"/>
       <c r="AT161" s="8"/>
     </row>
     <row r="162" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A162" s="15"/>
-      <c r="B162" s="16"/>
-      <c r="C162" s="17"/>
-      <c r="I162" s="14"/>
+      <c r="A162" s="20"/>
+      <c r="B162" s="21"/>
+      <c r="C162" s="22"/>
+      <c r="I162" s="13"/>
       <c r="J162">
         <v>7352</v>
       </c>
@@ -7706,20 +7712,20 @@
       <c r="AL162" s="6">
         <v>11515</v>
       </c>
-      <c r="AM162" s="14"/>
-      <c r="AN162" s="14"/>
-      <c r="AO162" s="19"/>
-      <c r="AP162" s="20"/>
-      <c r="AQ162" s="20"/>
-      <c r="AR162" s="20"/>
-      <c r="AS162" s="20"/>
+      <c r="AM162" s="13"/>
+      <c r="AN162" s="13"/>
+      <c r="AO162" s="14"/>
+      <c r="AP162" s="15"/>
+      <c r="AQ162" s="15"/>
+      <c r="AR162" s="15"/>
+      <c r="AS162" s="15"/>
       <c r="AT162" s="8"/>
     </row>
     <row r="163" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A163" s="15"/>
-      <c r="B163" s="16"/>
-      <c r="C163" s="17"/>
-      <c r="I163" s="14"/>
+      <c r="A163" s="20"/>
+      <c r="B163" s="21"/>
+      <c r="C163" s="22"/>
+      <c r="I163" s="13"/>
       <c r="J163">
         <v>11516</v>
       </c>
@@ -7807,20 +7813,20 @@
       <c r="AL163" s="5">
         <v>19458</v>
       </c>
-      <c r="AM163" s="14"/>
-      <c r="AN163" s="14"/>
-      <c r="AO163" s="19"/>
-      <c r="AP163" s="20"/>
-      <c r="AQ163" s="20"/>
-      <c r="AR163" s="20"/>
-      <c r="AS163" s="20"/>
+      <c r="AM163" s="13"/>
+      <c r="AN163" s="13"/>
+      <c r="AO163" s="14"/>
+      <c r="AP163" s="15"/>
+      <c r="AQ163" s="15"/>
+      <c r="AR163" s="15"/>
+      <c r="AS163" s="15"/>
       <c r="AT163" s="8"/>
     </row>
     <row r="164" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A164" s="15"/>
-      <c r="B164" s="16"/>
-      <c r="C164" s="17"/>
-      <c r="I164" s="14"/>
+      <c r="A164" s="20"/>
+      <c r="B164" s="21"/>
+      <c r="C164" s="22"/>
+      <c r="I164" s="13"/>
       <c r="J164">
         <v>20034</v>
       </c>
@@ -7833,13 +7839,13 @@
       <c r="M164" s="6">
         <v>21076</v>
       </c>
-      <c r="AM164" s="14"/>
-      <c r="AN164" s="14"/>
-      <c r="AO164" s="19"/>
-      <c r="AP164" s="20"/>
-      <c r="AQ164" s="20"/>
-      <c r="AR164" s="20"/>
-      <c r="AS164" s="20"/>
+      <c r="AM164" s="13"/>
+      <c r="AN164" s="13"/>
+      <c r="AO164" s="14"/>
+      <c r="AP164" s="15"/>
+      <c r="AQ164" s="15"/>
+      <c r="AR164" s="15"/>
+      <c r="AS164" s="15"/>
       <c r="AT164" s="8"/>
     </row>
     <row r="165" spans="1:46" x14ac:dyDescent="0.3">
@@ -9249,12 +9255,12 @@
         <f t="shared" si="7"/>
         <v>repeat</v>
       </c>
-      <c r="AP210" s="13" t="s">
+      <c r="AP210" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="AQ210" s="13"/>
-      <c r="AR210" s="13"/>
-      <c r="AS210" s="13"/>
+      <c r="AQ210" s="12"/>
+      <c r="AR210" s="12"/>
+      <c r="AS210" s="12"/>
     </row>
     <row r="211" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
@@ -9430,12 +9436,12 @@
         <f t="shared" si="7"/>
         <v>repeat</v>
       </c>
-      <c r="AP214" s="13" t="s">
+      <c r="AP214" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="AQ214" s="13"/>
-      <c r="AR214" s="13"/>
-      <c r="AS214" s="13"/>
+      <c r="AQ214" s="12"/>
+      <c r="AR214" s="12"/>
+      <c r="AS214" s="12"/>
     </row>
     <row r="215" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
@@ -9973,12 +9979,12 @@
         <f t="shared" si="7"/>
         <v>repeat</v>
       </c>
-      <c r="AP232" s="13" t="s">
+      <c r="AP232" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="AQ232" s="13"/>
-      <c r="AR232" s="13"/>
-      <c r="AS232" s="13"/>
+      <c r="AQ232" s="12"/>
+      <c r="AR232" s="12"/>
+      <c r="AS232" s="12"/>
     </row>
     <row r="233" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
@@ -10507,12 +10513,12 @@
         <f t="shared" si="7"/>
         <v>skip</v>
       </c>
-      <c r="AP250" s="13" t="s">
+      <c r="AP250" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="AQ250" s="13"/>
-      <c r="AR250" s="13"/>
-      <c r="AS250" s="13"/>
+      <c r="AQ250" s="12"/>
+      <c r="AR250" s="12"/>
+      <c r="AS250" s="12"/>
     </row>
     <row r="251" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
@@ -10577,20 +10583,20 @@
       <c r="A254" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B254" s="12" t="s">
+      <c r="B254" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="C254" s="13"/>
-      <c r="D254" s="13"/>
+      <c r="C254" s="12"/>
+      <c r="D254" s="12"/>
       <c r="I254" s="2">
         <f>SUM(I2:I252)</f>
         <v>10711.909999999994</v>
       </c>
-      <c r="J254" s="12" t="s">
+      <c r="J254" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="K254" s="13"/>
-      <c r="L254" s="13"/>
+      <c r="K254" s="12"/>
+      <c r="L254" s="12"/>
       <c r="AM254" s="4">
         <f>SUM(AM2:AM252)</f>
         <v>28858.899999999987</v>
@@ -10598,10 +10604,10 @@
       <c r="AN254" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="AO254" s="12" t="s">
+      <c r="AO254" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="AP254" s="13"/>
+      <c r="AP254" s="12"/>
     </row>
     <row r="255" spans="1:45" x14ac:dyDescent="0.3">
       <c r="I255" s="10" t="s">
@@ -10620,28 +10626,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AP210:AS210"/>
-    <mergeCell ref="AP214:AS214"/>
-    <mergeCell ref="AP123:AS123"/>
-    <mergeCell ref="AN160:AN164"/>
-    <mergeCell ref="AO160:AO164"/>
-    <mergeCell ref="AP118:AS118"/>
-    <mergeCell ref="AP72:AS72"/>
-    <mergeCell ref="AP158:AS158"/>
-    <mergeCell ref="AP160:AS164"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="J1:AL1"/>
-    <mergeCell ref="AP30:AS30"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="AP32:AS32"/>
-    <mergeCell ref="AP67:AS71"/>
-    <mergeCell ref="AN67:AN71"/>
-    <mergeCell ref="AO67:AO71"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="I67:I71"/>
-    <mergeCell ref="AM67:AM71"/>
     <mergeCell ref="AO254:AP254"/>
     <mergeCell ref="J254:L254"/>
     <mergeCell ref="AM149:AM151"/>
@@ -10658,6 +10642,28 @@
     <mergeCell ref="AP250:AS250"/>
     <mergeCell ref="AN149:AN151"/>
     <mergeCell ref="AO149:AO151"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="I67:I71"/>
+    <mergeCell ref="AM67:AM71"/>
+    <mergeCell ref="AP118:AS118"/>
+    <mergeCell ref="AP72:AS72"/>
+    <mergeCell ref="AP158:AS158"/>
+    <mergeCell ref="AP160:AS164"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="J1:AL1"/>
+    <mergeCell ref="AP30:AS30"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="AP32:AS32"/>
+    <mergeCell ref="AP67:AS71"/>
+    <mergeCell ref="AN67:AN71"/>
+    <mergeCell ref="AO67:AO71"/>
+    <mergeCell ref="AP210:AS210"/>
+    <mergeCell ref="AP214:AS214"/>
+    <mergeCell ref="AP123:AS123"/>
+    <mergeCell ref="AN160:AN164"/>
+    <mergeCell ref="AO160:AO164"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
